--- a/src/assets/sample-files/stock-sample.xlsx
+++ b/src/assets/sample-files/stock-sample.xlsx
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -191,14 +191,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -220,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -232,6 +230,36 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -245,34 +273,32 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,687 +321,666 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.71"/>
-    <col customWidth="1" min="2" max="2" width="28.57"/>
-    <col customWidth="1" min="3" max="3" width="22.86"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="48.0" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
         <v>0.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>1.0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>5.0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>1000.0</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="6">
         <v>1250.0</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
         <v>0.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>0.0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>5.0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <v>299.0</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>399.0</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="O3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>1.0</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>5.0</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>360.0</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="6">
         <v>460.0</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>0.0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>5.0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>150.0</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="6">
         <v>250.0</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
         <v>1250.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>1.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>9.0211E7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>1000.0</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
         <v>460.0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>1.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>9.0211E7</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>360.0</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6">
         <v>1400.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>1.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>9.0211E7</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>1100.0</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
         <v>1900.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>2.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>9.0211E7</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>550.0</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6">
         <v>5310.0</v>
       </c>
       <c r="F10" s="10">
         <v>9.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>9.0211E7</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>450.0</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6">
         <v>150.0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>1.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>9.0211E7</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>80.0</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/assets/sample-files/stock-sample.xlsx
+++ b/src/assets/sample-files/stock-sample.xlsx
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -191,12 +191,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -218,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -234,36 +236,6 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -273,32 +245,34 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,666 +295,687 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.71"/>
+    <col customWidth="1" min="2" max="2" width="28.57"/>
+    <col customWidth="1" min="3" max="3" width="22.86"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="48.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>1.0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>5.0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>1000.0</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="6">
         <v>1250.0</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>0.0</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>5.0</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>299.0</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>399.0</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.0</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>1.0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>5.0</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>360.0</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>460.0</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>5.0</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>150.0</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>250.0</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="O5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
         <v>1250.0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>1.0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>9.0211E7</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>1000.0</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="O6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
         <v>460.0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>1.0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>9.0211E7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>360.0</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="O7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400.0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>1.0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>9.0211E7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>1100.0</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="O8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900.0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>2.0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>9.0211E7</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>550.0</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
         <v>5310.0</v>
       </c>
       <c r="F10" s="10">
         <v>9.0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>9.0211E7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>450.0</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="O10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3">
         <v>150.0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>1.0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>9.0211E7</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>80.0</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/assets/sample-files/stock-sample.xlsx
+++ b/src/assets/sample-files/stock-sample.xlsx
@@ -13,16 +13,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
-    <t>S_Name</t>
+    <t>S_Name*</t>
   </si>
   <si>
     <t>S_UniqueName</t>
   </si>
   <si>
-    <t>StockGroupUniqueName</t>
-  </si>
-  <si>
-    <t>StockUnitCode</t>
+    <t>StockGroupUniqueName*</t>
+  </si>
+  <si>
+    <t>StockUnitCode*</t>
   </si>
   <si>
     <t>OpeningAmount</t>
@@ -70,7 +70,7 @@
     <t>maingroup</t>
   </si>
   <si>
-    <t>pcs</t>
+    <t>nos</t>
   </si>
   <si>
     <t>null</t>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -191,14 +191,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -220,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -232,6 +230,36 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -240,39 +268,43 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,309 +327,309 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.71"/>
-    <col customWidth="1" min="2" max="2" width="28.57"/>
-    <col customWidth="1" min="3" max="3" width="22.86"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="48.0" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8">
         <v>0.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>1.0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="8">
         <v>5.0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="7">
         <v>1000.0</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>1250.0</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="O2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8">
         <v>0.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>0.0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <v>5.0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <v>299.0</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="7">
         <v>399.0</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="O3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>1.0</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="8">
         <v>5.0</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <v>360.0</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="7">
         <v>460.0</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>0.0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="8">
         <v>5.0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="7">
         <v>150.0</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="7">
         <v>250.0</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -606,57 +638,58 @@
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7">
         <v>1250.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>1.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>9.0211E7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="8">
         <v>1000.0</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="O6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -665,57 +698,58 @@
       <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7">
         <v>460.0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>1.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>9.0211E7</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="8">
         <v>360.0</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="O7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -724,57 +758,58 @@
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7">
         <v>1400.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>1.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="8">
         <v>9.0211E7</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="8">
         <v>1100.0</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="O8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -783,57 +818,58 @@
       <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7">
         <v>1900.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>2.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="8">
         <v>9.0211E7</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8">
         <v>550.0</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="O9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -842,57 +878,58 @@
       <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7">
         <v>5310.0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>9.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="8">
         <v>9.0211E7</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="8">
         <v>450.0</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
+      <c r="O10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -901,81 +938,55 @@
       <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
         <v>150.0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>1.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>9.0211E7</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8">
         <v>80.0</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="O11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
